--- a/xlsx-templates/rongzitikuan.xlsx
+++ b/xlsx-templates/rongzitikuan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3E23F9-FB27-3A4F-800E-BB78A9376E80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C927D-AA1E-DC4F-A0D2-69B183E0D5BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="-5200" windowWidth="21600" windowHeight="37940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$D$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>中阅和瑞融资提款申请表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>公司负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务计划</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -239,11 +243,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -257,6 +298,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -275,7 +322,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,10 +614,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -576,12 +629,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="47" customHeight="1">
@@ -600,19 +653,19 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1">
@@ -658,75 +711,85 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" ht="26" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="51" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="34" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="34" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="34" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="34" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="34" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="34" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B11:D11"/>
+  <mergeCells count="11">
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B3:D4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
